--- a/All_Banks_FX_Parsed.xlsx
+++ b/All_Banks_FX_Parsed.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Automated-Rate-Sync-Streamlining-Deposit-FX-Updates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B0A785-DD36-44A9-A2D2-B5B11F03F873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF41AFB4-00A1-4B13-9CE2-A948729BE281}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="24">
   <si>
     <t>No.</t>
   </si>
@@ -114,10 +114,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
-    <numFmt numFmtId="165" formatCode="dd/mm/yyyy"/>
-    <numFmt numFmtId="166" formatCode="0.000%"/>
+    <numFmt numFmtId="164" formatCode="dd/mm/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.000%"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -130,12 +130,6 @@
       <sz val="11"/>
       <name val="Calibri"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -146,7 +140,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.39997558519241921"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -158,19 +158,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -202,40 +196,55 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="166" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -539,1117 +548,1818 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:M41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="12.109375" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
-    <col min="5" max="5" width="12.21875" customWidth="1"/>
-    <col min="6" max="6" width="15.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.44140625" customWidth="1"/>
-    <col min="9" max="9" width="19.88671875" customWidth="1"/>
-    <col min="10" max="11" width="15" customWidth="1"/>
-    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="1" max="3" width="8.88671875" style="1"/>
+    <col min="4" max="4" width="16.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.77734375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" style="1" customWidth="1"/>
+    <col min="7" max="13" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:13" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="12">
-        <v>45894</v>
-      </c>
-      <c r="E2" s="12">
-        <v>45894</v>
-      </c>
-      <c r="F2" s="12">
+      <c r="D2" s="4">
+        <v>45894</v>
+      </c>
+      <c r="E2" s="4">
+        <v>45894</v>
+      </c>
+      <c r="F2" s="4">
         <v>45924</v>
       </c>
-      <c r="G2" s="7">
+      <c r="G2" s="3">
         <v>26307</v>
       </c>
-      <c r="H2" s="7">
+      <c r="H2" s="3">
         <v>1.66</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="3">
         <v>26343</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="3">
         <v>30</v>
       </c>
-      <c r="K2" s="13">
-        <f t="shared" ref="K2:K25" si="0">IFERROR((I2-G2)*365/(G2*J2),0)</f>
+      <c r="K2" s="5">
+        <f t="shared" ref="K2:K41" si="0">IFERROR((I2-G2)*365/(G2*J2),0)</f>
         <v>1.6649560953358421E-2</v>
       </c>
-      <c r="L2" s="13">
-        <f t="shared" ref="L2:L25" si="1">IFERROR(K2-H2/100,0)</f>
+      <c r="L2" s="5">
+        <f t="shared" ref="L2:L41" si="1">IFERROR(K2-H2/100,0)</f>
         <v>4.9560953358420562E-5</v>
       </c>
-      <c r="M2" s="7">
-        <f t="shared" ref="M2:M25" si="2">ROUND(YEARFRAC(E2,F2)*12,0)</f>
+      <c r="M2" s="3">
+        <f t="shared" ref="M2:M41" si="2">ROUND(YEARFRAC(E2,F2)*12,0)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12">
-        <v>45894</v>
-      </c>
-      <c r="E3" s="12">
-        <v>45894</v>
-      </c>
-      <c r="F3" s="12">
+      <c r="D3" s="4">
+        <v>45894</v>
+      </c>
+      <c r="E3" s="4">
+        <v>45894</v>
+      </c>
+      <c r="F3" s="4">
         <v>45987</v>
       </c>
-      <c r="G3" s="7">
+      <c r="G3" s="3">
         <v>26307</v>
       </c>
-      <c r="H3" s="7">
+      <c r="H3" s="3">
         <v>1.66</v>
       </c>
-      <c r="I3" s="7">
+      <c r="I3" s="3">
         <v>26418</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="3">
         <v>93</v>
       </c>
-      <c r="K3" s="13">
+      <c r="K3" s="5">
         <f t="shared" si="0"/>
         <v>1.6560047184791978E-2</v>
       </c>
-      <c r="L3" s="13">
+      <c r="L3" s="5">
         <f t="shared" si="1"/>
         <v>-3.9952815208021963E-5</v>
       </c>
-      <c r="M3" s="7">
+      <c r="M3" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A4" s="7">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="12">
-        <v>45894</v>
-      </c>
-      <c r="E4" s="12">
-        <v>45894</v>
-      </c>
-      <c r="F4" s="12">
+      <c r="D4" s="4">
+        <v>45894</v>
+      </c>
+      <c r="E4" s="4">
+        <v>45894</v>
+      </c>
+      <c r="F4" s="4">
         <v>46077</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="3">
         <v>26307</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="3">
         <v>1.73</v>
       </c>
-      <c r="I4" s="7">
+      <c r="I4" s="3">
         <v>26535</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="3">
         <v>183</v>
       </c>
-      <c r="K4" s="13">
+      <c r="K4" s="5">
         <f t="shared" si="0"/>
         <v>1.728642940512623E-2</v>
       </c>
-      <c r="L4" s="13">
+      <c r="L4" s="5">
         <f t="shared" si="1"/>
         <v>-1.3570594873769243E-5</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A5" s="7">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="12">
-        <v>45894</v>
-      </c>
-      <c r="E5" s="12">
-        <v>45894</v>
-      </c>
-      <c r="F5" s="12">
+      <c r="D5" s="4">
+        <v>45894</v>
+      </c>
+      <c r="E5" s="4">
+        <v>45894</v>
+      </c>
+      <c r="F5" s="4">
         <v>46164</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="3">
         <v>26307</v>
       </c>
-      <c r="H5" s="7">
+      <c r="H5" s="3">
         <v>1.87</v>
       </c>
-      <c r="I5" s="7">
+      <c r="I5" s="3">
         <v>26606</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="3">
         <v>270</v>
       </c>
-      <c r="K5" s="13">
+      <c r="K5" s="5">
         <f t="shared" si="0"/>
         <v>1.5364872608191877E-2</v>
       </c>
-      <c r="L5" s="13">
+      <c r="L5" s="5">
         <f t="shared" si="1"/>
         <v>-3.3351273918081244E-3</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A6" s="7">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
-      <c r="B6" s="7" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="7" t="s">
+      <c r="C6" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="12">
-        <v>45894</v>
-      </c>
-      <c r="E6" s="12">
-        <v>45894</v>
-      </c>
-      <c r="F6" s="12">
+      <c r="D6" s="4">
+        <v>45894</v>
+      </c>
+      <c r="E6" s="4">
+        <v>45894</v>
+      </c>
+      <c r="F6" s="4">
         <v>46254</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="3">
         <v>26307</v>
       </c>
-      <c r="H6" s="7">
+      <c r="H6" s="3">
         <v>1.87</v>
       </c>
-      <c r="I6" s="7">
+      <c r="I6" s="3">
         <v>26622</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="3">
         <v>360</v>
       </c>
-      <c r="K6" s="13">
+      <c r="K6" s="5">
         <f t="shared" si="0"/>
         <v>1.2140304861823849E-2</v>
       </c>
-      <c r="L6" s="13">
+      <c r="L6" s="5">
         <f t="shared" si="1"/>
         <v>-6.5596951381761519E-3</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A7" s="7">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D7" s="12">
-        <v>45894</v>
-      </c>
-      <c r="E7" s="12">
-        <v>45894</v>
-      </c>
-      <c r="F7" s="12">
+      <c r="D7" s="4">
+        <v>45894</v>
+      </c>
+      <c r="E7" s="4">
+        <v>45894</v>
+      </c>
+      <c r="F7" s="4">
         <v>45924</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="3">
         <v>26303</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="3">
         <v>1.1100000000000001</v>
       </c>
-      <c r="I7" s="7">
+      <c r="I7" s="3">
         <v>26327</v>
       </c>
-      <c r="J7" s="7">
+      <c r="J7" s="3">
         <v>30</v>
       </c>
-      <c r="K7" s="13">
+      <c r="K7" s="5">
         <f t="shared" si="0"/>
         <v>1.1101395278105159E-2</v>
       </c>
-      <c r="L7" s="13">
+      <c r="L7" s="5">
         <f t="shared" si="1"/>
         <v>1.3952781051582153E-6</v>
       </c>
-      <c r="M7" s="7">
+      <c r="M7" s="3">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A8" s="7">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="B8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="7" t="s">
+      <c r="C8" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D8" s="12">
-        <v>45894</v>
-      </c>
-      <c r="E8" s="12">
-        <v>45894</v>
-      </c>
-      <c r="F8" s="12">
+      <c r="D8" s="4">
+        <v>45894</v>
+      </c>
+      <c r="E8" s="4">
+        <v>45894</v>
+      </c>
+      <c r="F8" s="4">
         <v>45987</v>
       </c>
-      <c r="G8" s="7">
+      <c r="G8" s="3">
         <v>26303</v>
       </c>
-      <c r="H8" s="7">
+      <c r="H8" s="3">
         <v>1.25</v>
       </c>
-      <c r="I8" s="7">
+      <c r="I8" s="3">
         <v>26387</v>
       </c>
-      <c r="J8" s="7">
+      <c r="J8" s="3">
         <v>93</v>
       </c>
-      <c r="K8" s="13">
+      <c r="K8" s="5">
         <f t="shared" si="0"/>
         <v>1.2533833378505825E-2</v>
       </c>
-      <c r="L8" s="13">
+      <c r="L8" s="5">
         <f t="shared" si="1"/>
         <v>3.383337850582438E-5</v>
       </c>
-      <c r="M8" s="7">
+      <c r="M8" s="3">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A9" s="7">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="7" t="s">
+      <c r="C9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D9" s="12">
-        <v>45894</v>
-      </c>
-      <c r="E9" s="12">
-        <v>45894</v>
-      </c>
-      <c r="F9" s="12">
+      <c r="D9" s="4">
+        <v>45894</v>
+      </c>
+      <c r="E9" s="4">
+        <v>45894</v>
+      </c>
+      <c r="F9" s="4">
         <v>46077</v>
       </c>
-      <c r="G9" s="7">
+      <c r="G9" s="3">
         <v>26303</v>
       </c>
-      <c r="H9" s="7">
+      <c r="H9" s="3">
         <v>1.37</v>
       </c>
-      <c r="I9" s="7">
+      <c r="I9" s="3">
         <v>26484</v>
       </c>
-      <c r="J9" s="7">
+      <c r="J9" s="3">
         <v>183</v>
       </c>
-      <c r="K9" s="13">
+      <c r="K9" s="5">
         <f t="shared" si="0"/>
         <v>1.3725085692192853E-2</v>
       </c>
-      <c r="L9" s="13">
+      <c r="L9" s="5">
         <f t="shared" si="1"/>
         <v>2.5085692192852727E-5</v>
       </c>
-      <c r="M9" s="7">
+      <c r="M9" s="3">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A10" s="7">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="C10" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="12">
-        <v>45894</v>
-      </c>
-      <c r="E10" s="12">
-        <v>45894</v>
-      </c>
-      <c r="F10" s="12">
+      <c r="D10" s="4">
+        <v>45894</v>
+      </c>
+      <c r="E10" s="4">
+        <v>45894</v>
+      </c>
+      <c r="F10" s="4">
         <v>46164</v>
       </c>
-      <c r="G10" s="7">
+      <c r="G10" s="3">
         <v>26303</v>
       </c>
-      <c r="H10" s="7">
+      <c r="H10" s="3">
         <v>1.48</v>
       </c>
-      <c r="I10" s="7">
+      <c r="I10" s="3">
         <v>26591</v>
       </c>
-      <c r="J10" s="7">
+      <c r="J10" s="3">
         <v>270</v>
       </c>
-      <c r="K10" s="13">
+      <c r="K10" s="5">
         <f t="shared" si="0"/>
         <v>1.4801860370806878E-2</v>
       </c>
-      <c r="L10" s="13">
+      <c r="L10" s="5">
         <f t="shared" si="1"/>
         <v>1.8603708068776204E-6</v>
       </c>
-      <c r="M10" s="7">
+      <c r="M10" s="3">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A11" s="7">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
-      <c r="B11" s="7" t="s">
+      <c r="B11" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D11" s="12">
-        <v>45894</v>
-      </c>
-      <c r="E11" s="12">
-        <v>45894</v>
-      </c>
-      <c r="F11" s="12">
+      <c r="D11" s="4">
+        <v>45894</v>
+      </c>
+      <c r="E11" s="4">
+        <v>45894</v>
+      </c>
+      <c r="F11" s="4">
         <v>46254</v>
       </c>
-      <c r="G11" s="7">
+      <c r="G11" s="3">
         <v>26303</v>
       </c>
-      <c r="H11" s="7">
+      <c r="H11" s="3">
         <v>1.49</v>
       </c>
-      <c r="I11" s="7">
+      <c r="I11" s="3">
         <v>26689</v>
       </c>
-      <c r="J11" s="7">
+      <c r="J11" s="3">
         <v>360</v>
       </c>
-      <c r="K11" s="13">
+      <c r="K11" s="5">
         <f t="shared" si="0"/>
         <v>1.4878953393571499E-2</v>
       </c>
-      <c r="L11" s="13">
+      <c r="L11" s="5">
         <f t="shared" si="1"/>
         <v>-2.1046606428501424E-5</v>
       </c>
-      <c r="M11" s="7">
+      <c r="M11" s="3">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="16.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A12" s="6">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D12" s="5">
-        <v>45894</v>
-      </c>
-      <c r="E12" s="5">
-        <v>45894</v>
-      </c>
-      <c r="F12" s="5">
+      <c r="D12" s="7">
+        <v>45894</v>
+      </c>
+      <c r="E12" s="7">
+        <v>45894</v>
+      </c>
+      <c r="F12" s="7">
         <v>45924</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="6">
         <v>26308</v>
       </c>
-      <c r="H12" s="4">
+      <c r="H12" s="6">
         <v>2.1</v>
       </c>
-      <c r="I12" s="4">
+      <c r="I12" s="6">
         <v>26354</v>
       </c>
-      <c r="J12" s="4">
+      <c r="J12" s="6">
         <v>30</v>
       </c>
-      <c r="K12" s="6">
+      <c r="K12" s="8">
         <f t="shared" si="0"/>
         <v>2.1273630327910395E-2</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="8">
         <f t="shared" si="1"/>
         <v>2.7363032791039368E-4</v>
       </c>
-      <c r="M12" s="4">
+      <c r="M12" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A13" s="6">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="7">
+        <v>45894</v>
+      </c>
+      <c r="E13" s="7">
+        <v>45894</v>
+      </c>
+      <c r="F13" s="7">
+        <v>45984</v>
+      </c>
+      <c r="G13" s="6">
+        <v>26308</v>
+      </c>
+      <c r="H13" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="I13" s="6">
+        <v>26433</v>
+      </c>
+      <c r="J13" s="6">
+        <v>90</v>
+      </c>
+      <c r="K13" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9269592688324632E-2</v>
+      </c>
+      <c r="L13" s="8">
+        <f t="shared" si="1"/>
+        <v>2.6959268832463246E-4</v>
+      </c>
+      <c r="M13" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A14" s="6">
+        <v>13</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D14" s="7">
+        <v>45894</v>
+      </c>
+      <c r="E14" s="7">
+        <v>45894</v>
+      </c>
+      <c r="F14" s="7">
+        <v>46074</v>
+      </c>
+      <c r="G14" s="6">
+        <v>26308</v>
+      </c>
+      <c r="H14" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="I14" s="6">
+        <v>26558</v>
+      </c>
+      <c r="J14" s="6">
+        <v>180</v>
+      </c>
+      <c r="K14" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9269592688324632E-2</v>
+      </c>
+      <c r="L14" s="8">
+        <f t="shared" si="1"/>
+        <v>2.6959268832463246E-4</v>
+      </c>
+      <c r="M14" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A15" s="6">
+        <v>14</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="7">
+        <v>45894</v>
+      </c>
+      <c r="E15" s="7">
+        <v>45894</v>
+      </c>
+      <c r="F15" s="7">
+        <v>46164</v>
+      </c>
+      <c r="G15" s="6">
+        <v>26308</v>
+      </c>
+      <c r="H15" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="I15" s="6">
+        <v>26683</v>
+      </c>
+      <c r="J15" s="6">
+        <v>270</v>
+      </c>
+      <c r="K15" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9269592688324632E-2</v>
+      </c>
+      <c r="L15" s="8">
+        <f t="shared" si="1"/>
+        <v>2.6959268832463246E-4</v>
+      </c>
+      <c r="M15" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A16" s="6">
         <v>15</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="B16" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="5">
-        <v>45894</v>
-      </c>
-      <c r="E13" s="5">
-        <v>45894</v>
-      </c>
-      <c r="F13" s="5">
+      <c r="D16" s="7">
+        <v>45894</v>
+      </c>
+      <c r="E16" s="7">
+        <v>45894</v>
+      </c>
+      <c r="F16" s="7">
+        <v>46254</v>
+      </c>
+      <c r="G16" s="6">
+        <v>26308</v>
+      </c>
+      <c r="H16" s="6">
+        <v>1.9</v>
+      </c>
+      <c r="I16" s="6">
+        <v>26808</v>
+      </c>
+      <c r="J16" s="6">
+        <v>360</v>
+      </c>
+      <c r="K16" s="8">
+        <f t="shared" si="0"/>
+        <v>1.9269592688324632E-2</v>
+      </c>
+      <c r="L16" s="8">
+        <f t="shared" si="1"/>
+        <v>2.6959268832463246E-4</v>
+      </c>
+      <c r="M16" s="6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A17" s="6">
+        <v>16</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="7">
+        <v>45894</v>
+      </c>
+      <c r="E17" s="7">
+        <v>45894</v>
+      </c>
+      <c r="F17" s="7">
         <v>45924</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G17" s="6">
         <v>26307</v>
       </c>
-      <c r="H13" s="4">
+      <c r="H17" s="6">
         <v>1.6</v>
       </c>
-      <c r="I13" s="4">
+      <c r="I17" s="6">
         <v>26342</v>
       </c>
-      <c r="J13" s="4">
+      <c r="J17" s="6">
         <v>30</v>
       </c>
-      <c r="K13" s="6">
+      <c r="K17" s="8">
         <f t="shared" si="0"/>
         <v>1.6187073149098466E-2</v>
       </c>
-      <c r="L13" s="6">
+      <c r="L17" s="8">
         <f t="shared" si="1"/>
         <v>1.8707314909846562E-4</v>
       </c>
-      <c r="M13" s="4">
+      <c r="M17" s="6">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A18" s="6">
+        <v>17</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D18" s="7">
+        <v>45894</v>
+      </c>
+      <c r="E18" s="7">
+        <v>45894</v>
+      </c>
+      <c r="F18" s="7">
+        <v>45984</v>
+      </c>
+      <c r="G18" s="6">
+        <v>26307</v>
+      </c>
+      <c r="H18" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="I18" s="6">
+        <v>26412</v>
+      </c>
+      <c r="J18" s="6">
+        <v>90</v>
+      </c>
+      <c r="K18" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6187073149098466E-2</v>
+      </c>
+      <c r="L18" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8707314909846562E-4</v>
+      </c>
+      <c r="M18" s="6">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A19" s="6">
+        <v>18</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D19" s="7">
+        <v>45894</v>
+      </c>
+      <c r="E19" s="7">
+        <v>45894</v>
+      </c>
+      <c r="F19" s="7">
+        <v>46074</v>
+      </c>
+      <c r="G19" s="6">
+        <v>26307</v>
+      </c>
+      <c r="H19" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="I19" s="6">
+        <v>26517</v>
+      </c>
+      <c r="J19" s="6">
+        <v>180</v>
+      </c>
+      <c r="K19" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6187073149098466E-2</v>
+      </c>
+      <c r="L19" s="8">
+        <f t="shared" si="1"/>
+        <v>1.8707314909846562E-4</v>
+      </c>
+      <c r="M19" s="6">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A20" s="6">
+        <v>19</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="7">
+        <v>45894</v>
+      </c>
+      <c r="E20" s="7">
+        <v>45894</v>
+      </c>
+      <c r="F20" s="7">
+        <v>46164</v>
+      </c>
+      <c r="G20" s="6">
+        <v>26307</v>
+      </c>
+      <c r="H20" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="I20" s="6">
+        <v>26623</v>
+      </c>
+      <c r="J20" s="6">
+        <v>270</v>
+      </c>
+      <c r="K20" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6238460682905128E-2</v>
+      </c>
+      <c r="L20" s="8">
+        <f t="shared" si="1"/>
+        <v>2.3846068290512765E-4</v>
+      </c>
+      <c r="M20" s="6">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A21" s="6">
+        <v>20</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D21" s="7">
+        <v>45894</v>
+      </c>
+      <c r="E21" s="7">
+        <v>45894</v>
+      </c>
+      <c r="F21" s="7">
+        <v>46254</v>
+      </c>
+      <c r="G21" s="6">
+        <v>26307</v>
+      </c>
+      <c r="H21" s="6">
+        <v>1.6</v>
+      </c>
+      <c r="I21" s="6">
+        <v>26728</v>
+      </c>
+      <c r="J21" s="6">
+        <v>360</v>
+      </c>
+      <c r="K21" s="8">
+        <f t="shared" si="0"/>
+        <v>1.6225613799453462E-2</v>
+      </c>
+      <c r="L21" s="8">
+        <f t="shared" si="1"/>
+        <v>2.2561379945346127E-4</v>
+      </c>
+      <c r="M21" s="6">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A22" s="9">
+        <v>21</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="C22" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D22" s="10">
+        <v>45894</v>
+      </c>
+      <c r="E22" s="10">
+        <v>45894</v>
+      </c>
+      <c r="F22" s="10">
+        <v>45922</v>
+      </c>
+      <c r="G22" s="9">
+        <v>26310</v>
+      </c>
+      <c r="H22" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="I22" s="9">
+        <v>26345</v>
+      </c>
+      <c r="J22" s="9">
+        <v>28</v>
+      </c>
+      <c r="K22" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7341315089319652E-2</v>
+      </c>
+      <c r="L22" s="11">
+        <f t="shared" si="1"/>
+        <v>3.4131508931965066E-4</v>
+      </c>
+      <c r="M22" s="9">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A23" s="9">
+        <v>22</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C23" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D14" s="5">
-        <v>45894</v>
-      </c>
-      <c r="E14" s="5">
-        <v>45894</v>
-      </c>
-      <c r="F14" s="5">
+      <c r="D23" s="10">
+        <v>45894</v>
+      </c>
+      <c r="E23" s="10">
+        <v>45894</v>
+      </c>
+      <c r="F23" s="10">
+        <v>45985</v>
+      </c>
+      <c r="G23" s="9">
+        <v>26310</v>
+      </c>
+      <c r="H23" s="9">
+        <v>1.7</v>
+      </c>
+      <c r="I23" s="9">
+        <v>26422</v>
+      </c>
+      <c r="J23" s="9">
+        <v>91</v>
+      </c>
+      <c r="K23" s="11">
+        <f t="shared" si="0"/>
+        <v>1.7074525626407041E-2</v>
+      </c>
+      <c r="L23" s="11">
+        <f t="shared" si="1"/>
+        <v>7.4525626407039719E-5</v>
+      </c>
+      <c r="M23" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>23</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="10">
+        <v>45894</v>
+      </c>
+      <c r="E24" s="10">
+        <v>45894</v>
+      </c>
+      <c r="F24" s="10">
+        <v>46076</v>
+      </c>
+      <c r="G24" s="9">
+        <v>26310</v>
+      </c>
+      <c r="H24" s="9">
+        <v>1.8</v>
+      </c>
+      <c r="I24" s="9">
+        <v>26547</v>
+      </c>
+      <c r="J24" s="9">
+        <v>182</v>
+      </c>
+      <c r="K24" s="11">
+        <f t="shared" si="0"/>
+        <v>1.8065457917225306E-2</v>
+      </c>
+      <c r="L24" s="11">
+        <f t="shared" si="1"/>
+        <v>6.5457917225304058E-5</v>
+      </c>
+      <c r="M24" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A25" s="9">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D25" s="10">
+        <v>45894</v>
+      </c>
+      <c r="E25" s="10">
+        <v>45894</v>
+      </c>
+      <c r="F25" s="10">
+        <v>46167</v>
+      </c>
+      <c r="G25" s="9">
+        <v>26310</v>
+      </c>
+      <c r="H25" s="9">
+        <v>1.95</v>
+      </c>
+      <c r="I25" s="9">
+        <v>26694</v>
+      </c>
+      <c r="J25" s="9">
+        <v>273</v>
+      </c>
+      <c r="K25" s="11">
+        <f t="shared" si="0"/>
+        <v>1.9513743573036618E-2</v>
+      </c>
+      <c r="L25" s="11">
+        <f t="shared" si="1"/>
+        <v>1.3743573036618245E-5</v>
+      </c>
+      <c r="M25" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A26" s="9">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D26" s="10">
+        <v>45894</v>
+      </c>
+      <c r="E26" s="10">
+        <v>45894</v>
+      </c>
+      <c r="F26" s="10">
+        <v>46258</v>
+      </c>
+      <c r="G26" s="9">
+        <v>26310</v>
+      </c>
+      <c r="H26" s="9">
+        <v>2</v>
+      </c>
+      <c r="I26" s="9">
+        <v>26835</v>
+      </c>
+      <c r="J26" s="9">
+        <v>364</v>
+      </c>
+      <c r="K26" s="11">
+        <f t="shared" si="0"/>
+        <v>2.0009209718445751E-2</v>
+      </c>
+      <c r="L26" s="11">
+        <f t="shared" si="1"/>
+        <v>9.2097184457504144E-6</v>
+      </c>
+      <c r="M26" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D27" s="10">
+        <v>45894</v>
+      </c>
+      <c r="E27" s="10">
+        <v>45894</v>
+      </c>
+      <c r="F27" s="10">
         <v>45922</v>
       </c>
-      <c r="G14" s="4">
-        <v>26310</v>
-      </c>
-      <c r="H14" s="4">
-        <v>1.7</v>
-      </c>
-      <c r="I14" s="4">
-        <v>26345</v>
-      </c>
-      <c r="J14" s="4">
+      <c r="G27" s="9">
+        <v>26300</v>
+      </c>
+      <c r="H27" s="9">
+        <v>1.2</v>
+      </c>
+      <c r="I27" s="9">
+        <v>26324</v>
+      </c>
+      <c r="J27" s="9">
         <v>28</v>
       </c>
-      <c r="K14" s="6">
-        <f t="shared" si="0"/>
-        <v>1.7341315089319652E-2</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="1"/>
-        <v>3.4131508931965066E-4</v>
-      </c>
-      <c r="M14" s="4">
+      <c r="K27" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1895708853883758E-2</v>
+      </c>
+      <c r="L27" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.0429114611624178E-4</v>
+      </c>
+      <c r="M27" s="9">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
-        <v>14</v>
-      </c>
-      <c r="B15" s="4" t="s">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A28" s="9">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C28" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D15" s="5">
-        <v>45894</v>
-      </c>
-      <c r="E15" s="5">
-        <v>45894</v>
-      </c>
-      <c r="F15" s="5">
-        <v>45922</v>
-      </c>
-      <c r="G15" s="4">
+      <c r="D28" s="10">
+        <v>45894</v>
+      </c>
+      <c r="E28" s="10">
+        <v>45894</v>
+      </c>
+      <c r="F28" s="10">
+        <v>45985</v>
+      </c>
+      <c r="G28" s="9">
         <v>26300</v>
       </c>
-      <c r="H15" s="4">
+      <c r="H28" s="9">
         <v>1.2</v>
       </c>
-      <c r="I15" s="4">
-        <v>26324</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="I28" s="9">
+        <v>26378</v>
+      </c>
+      <c r="J28" s="9">
+        <v>91</v>
+      </c>
+      <c r="K28" s="11">
+        <f t="shared" si="0"/>
+        <v>1.1895708853883758E-2</v>
+      </c>
+      <c r="L28" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.0429114611624178E-4</v>
+      </c>
+      <c r="M28" s="9">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A29" s="9">
         <v>28</v>
       </c>
-      <c r="K15" s="6">
-        <f t="shared" si="0"/>
-        <v>1.1895708853883758E-2</v>
-      </c>
-      <c r="L15" s="6">
-        <f t="shared" si="1"/>
-        <v>-1.0429114611624178E-4</v>
-      </c>
-      <c r="M15" s="4">
+      <c r="B29" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C29" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D29" s="10">
+        <v>45894</v>
+      </c>
+      <c r="E29" s="10">
+        <v>45894</v>
+      </c>
+      <c r="F29" s="10">
+        <v>46076</v>
+      </c>
+      <c r="G29" s="9">
+        <v>26300</v>
+      </c>
+      <c r="H29" s="9">
+        <v>1.3</v>
+      </c>
+      <c r="I29" s="9">
+        <v>26470</v>
+      </c>
+      <c r="J29" s="9">
+        <v>182</v>
+      </c>
+      <c r="K29" s="11">
+        <f t="shared" si="0"/>
+        <v>1.2963272468975891E-2</v>
+      </c>
+      <c r="L29" s="11">
+        <f t="shared" si="1"/>
+        <v>-3.6727531024110388E-5</v>
+      </c>
+      <c r="M29" s="9">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A30" s="9">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C30" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D30" s="10">
+        <v>45894</v>
+      </c>
+      <c r="E30" s="10">
+        <v>45894</v>
+      </c>
+      <c r="F30" s="10">
+        <v>46167</v>
+      </c>
+      <c r="G30" s="9">
+        <v>26300</v>
+      </c>
+      <c r="H30" s="9">
+        <v>1.45</v>
+      </c>
+      <c r="I30" s="9">
+        <v>26585</v>
+      </c>
+      <c r="J30" s="9">
+        <v>273</v>
+      </c>
+      <c r="K30" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4488363347678937E-2</v>
+      </c>
+      <c r="L30" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.1636652321062382E-5</v>
+      </c>
+      <c r="M30" s="9">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A31" s="9">
+        <v>30</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D31" s="10">
+        <v>45894</v>
+      </c>
+      <c r="E31" s="10">
+        <v>45894</v>
+      </c>
+      <c r="F31" s="10">
+        <v>46258</v>
+      </c>
+      <c r="G31" s="9">
+        <v>26300</v>
+      </c>
+      <c r="H31" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="I31" s="9">
+        <v>26693</v>
+      </c>
+      <c r="J31" s="9">
+        <v>364</v>
+      </c>
+      <c r="K31" s="11">
+        <f t="shared" si="0"/>
+        <v>1.4984017883257428E-2</v>
+      </c>
+      <c r="L31" s="11">
+        <f t="shared" si="1"/>
+        <v>-1.5982116742571661E-5</v>
+      </c>
+      <c r="M31" s="9">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A32" s="12">
+        <v>31</v>
+      </c>
+      <c r="B32" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D32" s="13">
+        <v>45894</v>
+      </c>
+      <c r="E32" s="13">
+        <v>45894</v>
+      </c>
+      <c r="F32" s="13">
+        <v>45929</v>
+      </c>
+      <c r="G32" s="12">
+        <v>26305</v>
+      </c>
+      <c r="H32" s="12">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="I32" s="12">
+        <v>26343</v>
+      </c>
+      <c r="J32" s="12">
+        <v>35</v>
+      </c>
+      <c r="K32" s="14">
+        <f t="shared" si="0"/>
+        <v>1.5065033806717898E-2</v>
+      </c>
+      <c r="L32" s="14">
+        <f t="shared" si="1"/>
+        <v>1.3665033806717897E-2</v>
+      </c>
+      <c r="M32" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="14">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A33" s="12">
+        <v>32</v>
+      </c>
+      <c r="B33" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D33" s="13">
+        <v>45894</v>
+      </c>
+      <c r="E33" s="13">
+        <v>45894</v>
+      </c>
+      <c r="F33" s="13">
+        <v>45988</v>
+      </c>
+      <c r="G33" s="12">
+        <v>26305</v>
+      </c>
+      <c r="H33" s="12">
+        <v>0.43</v>
+      </c>
+      <c r="I33" s="12">
+        <v>26418</v>
+      </c>
+      <c r="J33" s="12">
+        <v>94</v>
+      </c>
+      <c r="K33" s="14">
+        <f t="shared" si="0"/>
+        <v>1.6680349581626338E-2</v>
+      </c>
+      <c r="L33" s="14">
+        <f t="shared" si="1"/>
+        <v>1.2380349581626338E-2</v>
+      </c>
+      <c r="M33" s="12">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A34" s="12">
+        <v>33</v>
+      </c>
+      <c r="B34" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" s="13">
+        <v>45894</v>
+      </c>
+      <c r="E34" s="13">
+        <v>45894</v>
+      </c>
+      <c r="F34" s="13">
+        <v>46080</v>
+      </c>
+      <c r="G34" s="12">
+        <v>26305</v>
+      </c>
+      <c r="H34" s="12">
+        <v>0.86</v>
+      </c>
+      <c r="I34" s="12">
+        <v>26530</v>
+      </c>
+      <c r="J34" s="12">
+        <v>186</v>
+      </c>
+      <c r="K34" s="14">
+        <f t="shared" si="0"/>
+        <v>1.6785107700608863E-2</v>
+      </c>
+      <c r="L34" s="14">
+        <f t="shared" si="1"/>
+        <v>8.1851077006088631E-3</v>
+      </c>
+      <c r="M34" s="12">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A35" s="12">
+        <v>34</v>
+      </c>
+      <c r="B35" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D35" s="13">
+        <v>45894</v>
+      </c>
+      <c r="E35" s="13">
+        <v>45894</v>
+      </c>
+      <c r="F35" s="13">
+        <v>46169</v>
+      </c>
+      <c r="G35" s="12">
+        <v>26305</v>
+      </c>
+      <c r="H35" s="12">
+        <v>1.38</v>
+      </c>
+      <c r="I35" s="12">
+        <v>26669</v>
+      </c>
+      <c r="J35" s="12">
+        <v>275</v>
+      </c>
+      <c r="K35" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8366366573931675E-2</v>
+      </c>
+      <c r="L35" s="14">
+        <f t="shared" si="1"/>
+        <v>4.5663665739316753E-3</v>
+      </c>
+      <c r="M35" s="12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A36" s="12">
+        <v>35</v>
+      </c>
+      <c r="B36" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D36" s="13">
+        <v>45894</v>
+      </c>
+      <c r="E36" s="13">
+        <v>45894</v>
+      </c>
+      <c r="F36" s="13">
+        <v>46261</v>
+      </c>
+      <c r="G36" s="12">
+        <v>26305</v>
+      </c>
+      <c r="H36" s="12">
+        <v>1.85</v>
+      </c>
+      <c r="I36" s="12">
+        <v>26792</v>
+      </c>
+      <c r="J36" s="12">
+        <v>367</v>
+      </c>
+      <c r="K36" s="14">
+        <f t="shared" si="0"/>
+        <v>1.8412699070379072E-2</v>
+      </c>
+      <c r="L36" s="14">
+        <f t="shared" si="1"/>
+        <v>-8.7300929620930806E-5</v>
+      </c>
+      <c r="M36" s="12">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A37" s="12">
+        <v>36</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C16" s="14" t="s">
+      <c r="C37" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D16" s="15">
-        <v>45894</v>
-      </c>
-      <c r="E16" s="15">
-        <v>45894</v>
-      </c>
-      <c r="F16" s="15">
+      <c r="D37" s="13">
+        <v>45894</v>
+      </c>
+      <c r="E37" s="13">
+        <v>45894</v>
+      </c>
+      <c r="F37" s="13">
         <v>45929</v>
       </c>
-      <c r="G16" s="14">
-        <v>26305</v>
-      </c>
-      <c r="H16" s="14">
-        <v>0.14000000000000001</v>
-      </c>
-      <c r="I16" s="14">
-        <v>26343</v>
-      </c>
-      <c r="J16" s="14">
+      <c r="G37" s="12">
+        <v>26300</v>
+      </c>
+      <c r="H37" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="I37" s="12">
+        <v>26327</v>
+      </c>
+      <c r="J37" s="12">
         <v>35</v>
       </c>
-      <c r="K16" s="16">
-        <f t="shared" si="0"/>
-        <v>1.5065033806717898E-2</v>
-      </c>
-      <c r="L16" s="16">
-        <f t="shared" si="1"/>
-        <v>1.3665033806717897E-2</v>
-      </c>
-      <c r="M16" s="14">
+      <c r="K37" s="14">
+        <f t="shared" si="0"/>
+        <v>1.0706137968495382E-2</v>
+      </c>
+      <c r="L37" s="14">
+        <f t="shared" si="1"/>
+        <v>9.7061379684953812E-3</v>
+      </c>
+      <c r="M37" s="12">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="14">
-        <v>16</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C17" s="14" t="s">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A38" s="12">
+        <v>37</v>
+      </c>
+      <c r="B38" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D17" s="15">
-        <v>45894</v>
-      </c>
-      <c r="E17" s="15">
-        <v>45894</v>
-      </c>
-      <c r="F17" s="15">
+      <c r="D38" s="13">
+        <v>45894</v>
+      </c>
+      <c r="E38" s="13">
+        <v>45894</v>
+      </c>
+      <c r="F38" s="13">
         <v>45988</v>
       </c>
-      <c r="G17" s="14">
-        <v>26305</v>
-      </c>
-      <c r="H17" s="14">
-        <v>0.43</v>
-      </c>
-      <c r="I17" s="14">
-        <v>26418</v>
-      </c>
-      <c r="J17" s="14">
+      <c r="G38" s="12">
+        <v>26300</v>
+      </c>
+      <c r="H38" s="12">
+        <v>0.33</v>
+      </c>
+      <c r="I38" s="12">
+        <v>26386</v>
+      </c>
+      <c r="J38" s="12">
         <v>94</v>
       </c>
-      <c r="K17" s="16">
-        <f t="shared" si="0"/>
-        <v>1.6680349581626338E-2</v>
-      </c>
-      <c r="L17" s="16">
-        <f t="shared" si="1"/>
-        <v>1.2380349581626338E-2</v>
-      </c>
-      <c r="M17" s="14">
+      <c r="K38" s="14">
+        <f t="shared" si="0"/>
+        <v>1.269719278375536E-2</v>
+      </c>
+      <c r="L38" s="14">
+        <f t="shared" si="1"/>
+        <v>9.3971927837553614E-3</v>
+      </c>
+      <c r="M38" s="12">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="14">
-        <v>17</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C18" s="14" t="s">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A39" s="12">
+        <v>38</v>
+      </c>
+      <c r="B39" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D18" s="15">
-        <v>45894</v>
-      </c>
-      <c r="E18" s="15">
-        <v>45894</v>
-      </c>
-      <c r="F18" s="15">
+      <c r="D39" s="13">
+        <v>45894</v>
+      </c>
+      <c r="E39" s="13">
+        <v>45894</v>
+      </c>
+      <c r="F39" s="13">
         <v>46080</v>
       </c>
-      <c r="G18" s="14">
-        <v>26305</v>
-      </c>
-      <c r="H18" s="14">
-        <v>0.86</v>
-      </c>
-      <c r="I18" s="14">
-        <v>26530</v>
-      </c>
-      <c r="J18" s="14">
+      <c r="G39" s="12">
+        <v>26300</v>
+      </c>
+      <c r="H39" s="12">
+        <v>0.65</v>
+      </c>
+      <c r="I39" s="12">
+        <v>26472</v>
+      </c>
+      <c r="J39" s="12">
         <v>186</v>
       </c>
-      <c r="K18" s="16">
-        <f t="shared" si="0"/>
-        <v>1.6785107700608863E-2</v>
-      </c>
-      <c r="L18" s="16">
-        <f t="shared" si="1"/>
-        <v>8.1851077006088631E-3</v>
-      </c>
-      <c r="M18" s="14">
+      <c r="K39" s="14">
+        <f t="shared" si="0"/>
+        <v>1.2833721738419396E-2</v>
+      </c>
+      <c r="L39" s="14">
+        <f t="shared" si="1"/>
+        <v>6.3337217384193956E-3</v>
+      </c>
+      <c r="M39" s="12">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="14">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A40" s="12">
+        <v>39</v>
+      </c>
+      <c r="B40" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C40" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="B19" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C19" s="14" t="s">
+      <c r="D40" s="13">
+        <v>45894</v>
+      </c>
+      <c r="E40" s="13">
+        <v>45894</v>
+      </c>
+      <c r="F40" s="13">
+        <v>46169</v>
+      </c>
+      <c r="G40" s="12">
+        <v>26300</v>
+      </c>
+      <c r="H40" s="12">
+        <v>1.08</v>
+      </c>
+      <c r="I40" s="12">
+        <v>26585</v>
+      </c>
+      <c r="J40" s="12">
+        <v>275</v>
+      </c>
+      <c r="K40" s="14">
+        <f t="shared" si="0"/>
+        <v>1.4382993432423091E-2</v>
+      </c>
+      <c r="L40" s="14">
+        <f t="shared" si="1"/>
+        <v>3.58299343242309E-3</v>
+      </c>
+      <c r="M40" s="12">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A41" s="12">
+        <v>40</v>
+      </c>
+      <c r="B41" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41" s="12" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="15">
-        <v>45894</v>
-      </c>
-      <c r="E19" s="15">
-        <v>45894</v>
-      </c>
-      <c r="F19" s="15">
-        <v>46169</v>
-      </c>
-      <c r="G19" s="14">
-        <v>26305</v>
-      </c>
-      <c r="H19" s="14">
-        <v>1.38</v>
-      </c>
-      <c r="I19" s="14">
-        <v>26669</v>
-      </c>
-      <c r="J19" s="14">
-        <v>275</v>
-      </c>
-      <c r="K19" s="16">
-        <f t="shared" si="0"/>
-        <v>1.8366366573931675E-2</v>
-      </c>
-      <c r="L19" s="16">
-        <f t="shared" si="1"/>
-        <v>4.5663665739316753E-3</v>
-      </c>
-      <c r="M19" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="14">
-        <v>19</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="15">
-        <v>45894</v>
-      </c>
-      <c r="E20" s="15">
-        <v>45894</v>
-      </c>
-      <c r="F20" s="15">
+      <c r="D41" s="13">
+        <v>45894</v>
+      </c>
+      <c r="E41" s="13">
+        <v>45894</v>
+      </c>
+      <c r="F41" s="13">
         <v>46261</v>
       </c>
-      <c r="G20" s="14">
-        <v>26305</v>
-      </c>
-      <c r="H20" s="14">
-        <v>1.85</v>
-      </c>
-      <c r="I20" s="14">
-        <v>26792</v>
-      </c>
-      <c r="J20" s="14">
+      <c r="G41" s="12">
+        <v>26300</v>
+      </c>
+      <c r="H41" s="12">
+        <v>1.45</v>
+      </c>
+      <c r="I41" s="12">
+        <v>26681</v>
+      </c>
+      <c r="J41" s="12">
         <v>367</v>
       </c>
-      <c r="K20" s="16">
-        <f t="shared" si="0"/>
-        <v>1.8412699070379072E-2</v>
-      </c>
-      <c r="L20" s="16">
-        <f t="shared" si="1"/>
-        <v>-8.7300929620930806E-5</v>
-      </c>
-      <c r="M20" s="14">
-        <f t="shared" si="2"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="14">
-        <v>20</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="15">
-        <v>45894</v>
-      </c>
-      <c r="E21" s="15">
-        <v>45894</v>
-      </c>
-      <c r="F21" s="15">
-        <v>45929</v>
-      </c>
-      <c r="G21" s="14">
-        <v>26300</v>
-      </c>
-      <c r="H21" s="14">
-        <v>0.1</v>
-      </c>
-      <c r="I21" s="14">
-        <v>26327</v>
-      </c>
-      <c r="J21" s="14">
-        <v>35</v>
-      </c>
-      <c r="K21" s="16">
-        <f t="shared" si="0"/>
-        <v>1.0706137968495382E-2</v>
-      </c>
-      <c r="L21" s="16">
-        <f t="shared" si="1"/>
-        <v>9.7061379684953812E-3</v>
-      </c>
-      <c r="M21" s="14">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="14">
-        <v>21</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D22" s="15">
-        <v>45894</v>
-      </c>
-      <c r="E22" s="15">
-        <v>45894</v>
-      </c>
-      <c r="F22" s="15">
-        <v>45988</v>
-      </c>
-      <c r="G22" s="14">
-        <v>26300</v>
-      </c>
-      <c r="H22" s="14">
-        <v>0.33</v>
-      </c>
-      <c r="I22" s="14">
-        <v>26386</v>
-      </c>
-      <c r="J22" s="14">
-        <v>94</v>
-      </c>
-      <c r="K22" s="16">
-        <f t="shared" si="0"/>
-        <v>1.269719278375536E-2</v>
-      </c>
-      <c r="L22" s="16">
-        <f t="shared" si="1"/>
-        <v>9.3971927837553614E-3</v>
-      </c>
-      <c r="M22" s="14">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="14">
-        <v>22</v>
-      </c>
-      <c r="B23" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C23" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D23" s="15">
-        <v>45894</v>
-      </c>
-      <c r="E23" s="15">
-        <v>45894</v>
-      </c>
-      <c r="F23" s="15">
-        <v>46080</v>
-      </c>
-      <c r="G23" s="14">
-        <v>26300</v>
-      </c>
-      <c r="H23" s="14">
-        <v>0.65</v>
-      </c>
-      <c r="I23" s="14">
-        <v>26472</v>
-      </c>
-      <c r="J23" s="14">
-        <v>186</v>
-      </c>
-      <c r="K23" s="16">
-        <f t="shared" si="0"/>
-        <v>1.2833721738419396E-2</v>
-      </c>
-      <c r="L23" s="16">
-        <f t="shared" si="1"/>
-        <v>6.3337217384193956E-3</v>
-      </c>
-      <c r="M23" s="14">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="14">
-        <v>23</v>
-      </c>
-      <c r="B24" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D24" s="15">
-        <v>45894</v>
-      </c>
-      <c r="E24" s="15">
-        <v>45894</v>
-      </c>
-      <c r="F24" s="15">
-        <v>46169</v>
-      </c>
-      <c r="G24" s="14">
-        <v>26300</v>
-      </c>
-      <c r="H24" s="14">
-        <v>1.08</v>
-      </c>
-      <c r="I24" s="14">
-        <v>26585</v>
-      </c>
-      <c r="J24" s="14">
-        <v>275</v>
-      </c>
-      <c r="K24" s="16">
-        <f t="shared" si="0"/>
-        <v>1.4382993432423091E-2</v>
-      </c>
-      <c r="L24" s="16">
-        <f t="shared" si="1"/>
-        <v>3.58299343242309E-3</v>
-      </c>
-      <c r="M24" s="14">
-        <f t="shared" si="2"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="14">
-        <v>24</v>
-      </c>
-      <c r="B25" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="D25" s="15">
-        <v>45894</v>
-      </c>
-      <c r="E25" s="15">
-        <v>45894</v>
-      </c>
-      <c r="F25" s="15">
-        <v>46261</v>
-      </c>
-      <c r="G25" s="14">
-        <v>26300</v>
-      </c>
-      <c r="H25" s="14">
-        <v>1.45</v>
-      </c>
-      <c r="I25" s="14">
-        <v>26681</v>
-      </c>
-      <c r="J25" s="14">
-        <v>367</v>
-      </c>
-      <c r="K25" s="16">
+      <c r="K41" s="14">
         <f t="shared" si="0"/>
         <v>1.4407745464717523E-2</v>
       </c>
-      <c r="L25" s="16">
+      <c r="L41" s="14">
         <f t="shared" si="1"/>
         <v>-9.2254535282476277E-5</v>
       </c>
-      <c r="M25" s="14">
+      <c r="M41" s="12">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
@@ -1663,207 +2373,214 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="5" max="5" width="31.88671875" customWidth="1"/>
+    <col min="6" max="6" width="28.109375" customWidth="1"/>
+    <col min="7" max="7" width="39.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="72" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="7">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="7" t="s">
+      <c r="C2" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7">
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15">
         <v>26370</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="7">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="15" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7">
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15">
         <v>26380</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="3">
+      <c r="D4" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E4" s="15">
         <v>26284</v>
       </c>
-      <c r="F4" s="3">
+      <c r="F4" s="15">
         <v>26430</v>
       </c>
-      <c r="G4" s="3">
+      <c r="G4" s="15">
         <v>26428</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="3">
+      <c r="D5" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="15">
         <v>26285</v>
       </c>
-      <c r="F5" s="3">
+      <c r="F5" s="15">
         <v>26431</v>
       </c>
-      <c r="G5" s="3">
+      <c r="G5" s="15">
         <v>26429</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
+      <c r="A6" s="15">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="15">
         <v>26273</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="15">
         <v>26445</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="15">
         <v>26330</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
+      <c r="A7" s="15">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="15">
         <v>26273</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="15">
         <v>26445</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="15">
         <v>26330</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
+      <c r="A8" s="15">
         <v>7</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="15" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="8" t="s">
+      <c r="C8" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D8" s="11">
-        <v>45894</v>
-      </c>
-      <c r="E8" s="8">
+      <c r="D8" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="15">
         <v>26090</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="15">
         <v>26242</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="15">
         <v>26242</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9" s="8">
+      <c r="A9" s="15">
         <v>8</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
+      <c r="C9" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="11">
-        <v>45894</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E9" s="15">
         <v>26450</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="15">
         <v>26562</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="15">
         <v>26562</v>
       </c>
     </row>
@@ -1874,62 +2591,78 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
-    <col min="3" max="3" width="24.77734375" customWidth="1"/>
+    <col min="3" max="4" width="28" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="16" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="D1" s="16" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="19">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="15">
         <v>1</v>
       </c>
-      <c r="B2" s="19" t="s">
+      <c r="B2" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="19"/>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="19">
+      <c r="D2" s="15"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="15">
         <v>2</v>
       </c>
-      <c r="B3" s="19"/>
-      <c r="C3" s="19"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="19">
+      <c r="B3" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="15"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
         <v>3</v>
       </c>
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C4" s="19"/>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="19">
+      <c r="D4" s="15"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
         <v>4</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="19"/>
+      <c r="D5" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
